--- a/semester-III/Charts.xlsx
+++ b/semester-III/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_rep\courseworks\semester-III\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F040E77A-B30C-47AA-A15F-98A850D717B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6905F3F-CFB5-43F0-947F-9F9CEECAE6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{64E819AA-AAEE-4226-8743-25B5D0F78D80}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,31 +125,31 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,7 +1241,60 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-MD">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Шифрование</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-MD"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -1768,7 +1821,60 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-MD">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Дешифрование</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-MD"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -4542,15 +4648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4887,147 +4993,147 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>32</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>2.02</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>80.912000000000006</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>90.813999999999993</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>64</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>2.13</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>10.53</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>61.543999999999997</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>76.117000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>128</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>2.29</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>11.41</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>52.902000000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>55.177999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>256</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>16.27</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>15.679</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>25.890999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>512</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>2.63</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>24.44</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>33.207000000000001</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>43.320999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5045,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58FFD24-9142-49B6-9848-2AC576EA4436}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,112 +5165,112 @@
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>32</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>3.4091400000000001E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>7.5773000000000004E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>5.7574100000000003E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>2.6223300000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>64</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>4.1689900000000002E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1.8578299999999999E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>0.26999400000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>5.7792700000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>9.2959299999999995E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3.2797699999999999E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>0.752529</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0.107625</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>256</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>0.18807099999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>7.3709899999999995E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>3.3981699999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0.203648</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>512</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>0.317965</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>0.117259</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>12.5185</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0.41216900000000001</v>
       </c>
     </row>
